--- a/data/trans_bre/P20B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P20B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,6%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-63,29; -8,38</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-45,7; 8,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-35,38; 17,67</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,58; 73,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,05; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,23%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,14; 17,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,64; 14,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,82; 17,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,12; 12,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,36; 264,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,96; 86,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,76; 128,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,51; 41,72</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,02%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-37,83; 19,7</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-18,96; 27,47</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-42,75; 20,99</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-39,9; -0,72</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,46; 319,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,58; 244,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,86; -4,05</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>166,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,79%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-16,0; 46,19</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-31,61; 3,35</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-19,38; 29,68</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-36,18; 18,94</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,26; 15,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,07; 189,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,76; 84,23</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-39,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,15%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,25%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-43,24; 4,17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-59,55; 9,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-60,66; 27,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-77,41; -2,43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,45; 36,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,61; 92,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,1; 32,27</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,06</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,05</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,42</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,64%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,09; 11,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,65; 9,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,28; 24,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,09; 8,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,75; 121,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,25; 159,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,49; 146,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,82; 67,09</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,36%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,73; 14,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,73; 15,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,87; 13,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,01; 20,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,2; 65,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,23; 101,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,78; 81,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,9; 129,41</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,89</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,96</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,75%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,42; 13,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 25,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,95; 5,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,61; 2,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,83; 115,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,34; 394,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,94; 27,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,6; 17,91</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,27%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,72%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,57%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 2,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,55; 3,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,67; -0,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,2; -1,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,19; 14,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,16; 15,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,47; -0,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,04; -4,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-22,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-26,6%</t>
+          <t>-30,81%</t>
         </is>
       </c>
     </row>
@@ -673,27 +673,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-48,13; 3,83</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-45,7; 8,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-37,64; 17,05</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-45,7; 8,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-35,38; 17,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,41; 10,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-87,05; —</t>
+          <t>-87,78; —</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,6</t>
+          <t>-12,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-32,23%</t>
+          <t>-30,74%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 12,42</t>
+          <t>-34,15; 11,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,51; 41,72</t>
+          <t>-68,68; 43,12</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,94</t>
+          <t>-20,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-49,02%</t>
+          <t>-49,1%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,9; -0,72</t>
+          <t>-40,14; -0,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,86; -4,05</t>
+          <t>-75,81; -3,67</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,01</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,26%</t>
+          <t>-13,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>-17,55%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 3,35</t>
+          <t>-25,91; 17,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 18,94</t>
+          <t>-34,45; 20,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 15,02</t>
+          <t>-70,8; 203,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,76; 84,23</t>
+          <t>-66,05; 93,57</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-39,35</t>
+          <t>-39,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-74,25%</t>
+          <t>-74,18%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-77,41; -2,43</t>
+          <t>-76,89; -2,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-94,1; 32,27</t>
+          <t>-94,17; 31,89</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-10,43</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-40,64%</t>
+          <t>-40,66%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 8,34</t>
+          <t>-27,97; 8,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,82; 67,09</t>
+          <t>-80,98; 67,8</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>17,28%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 20,14</t>
+          <t>-13,73; 20,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-38,9; 129,41</t>
+          <t>-39,41; 129,9</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,96</t>
+          <t>-16,82</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-53,75%</t>
+          <t>-52,49%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 2,11</t>
+          <t>-38,91; 2,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,6; 17,91</t>
+          <t>-83,03; 20,7</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-10,48</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-31,57%</t>
+          <t>-30,59%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -1,43</t>
+          <t>-17,91; -1,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-49,04; -4,51</t>
+          <t>-48,7; -3,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-63,29; -8,38</t>
+          <t>-63,17; -8,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-48,13; 3,83</t>
+          <t>-48,01; 2,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 8,5</t>
+          <t>-45,54; 8,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 17,05</t>
+          <t>-37,15; 16,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,24 +693,24 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,41; 10,76</t>
+          <t>-73,72; 10,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-84,58; 73,96</t>
+          <t>-84,02; 69,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-87,78; —</t>
+          <t>-87,39; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 17,5</t>
+          <t>-22,94; 16,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 14,5</t>
+          <t>-22,37; 14,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 17,82</t>
+          <t>-33,7; 20,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 11,96</t>
+          <t>-36,11; 12,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,36; 264,15</t>
+          <t>-65,94; 220,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 86,55</t>
+          <t>-60,15; 99,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,76; 128,44</t>
+          <t>-75,42; 140,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,68; 43,12</t>
+          <t>-70,15; 45,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 19,7</t>
+          <t>-42,63; 20,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 27,47</t>
+          <t>-14,38; 32,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 20,99</t>
+          <t>-41,62; 18,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,14; -0,84</t>
+          <t>-40,18; -1,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 319,42</t>
+          <t>-48,02; 679,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-78,58; 244,8</t>
+          <t>-81,37; 194,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,81; -3,67</t>
+          <t>-75,86; -5,43</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 46,19</t>
+          <t>-15,47; 46,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 17,92</t>
+          <t>-27,97; 17,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 29,68</t>
+          <t>-18,57; 30,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 20,65</t>
+          <t>-30,98; 24,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,8; 203,37</t>
+          <t>-70,66; 200,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 189,98</t>
+          <t>-49,85; 214,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,05; 93,57</t>
+          <t>-61,53; 131,42</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 4,17</t>
+          <t>-42,83; 5,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-59,55; 9,27</t>
+          <t>-60,99; 6,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-60,66; 27,17</t>
+          <t>-61,99; 25,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-76,89; -2,21</t>
+          <t>-73,59; -0,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,24 +1093,24 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-85,45; 36,67</t>
+          <t>-83,83; 28,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-82,61; 92,02</t>
+          <t>-86,54; 108,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-94,17; 31,89</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 11,5</t>
+          <t>-47,73; 12,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,65; 9,46</t>
+          <t>-50,93; 6,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 24,12</t>
+          <t>-35,04; 23,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 8,34</t>
+          <t>-27,82; 6,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,75; 121,48</t>
+          <t>-83,33; 139,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-91,25; 159,73</t>
+          <t>-92,22; 100,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,49; 146,18</t>
+          <t>-70,48; 130,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,98; 67,8</t>
+          <t>-79,29; 57,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 14,25</t>
+          <t>-27,91; 12,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 15,27</t>
+          <t>-27,15; 15,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 13,32</t>
+          <t>-36,25; 12,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 20,19</t>
+          <t>-14,33; 21,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-57,2; 65,74</t>
+          <t>-58,14; 49,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 101,76</t>
+          <t>-61,59; 99,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-69,78; 81,17</t>
+          <t>-69,8; 70,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 129,9</t>
+          <t>-37,57; 164,38</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 13,1</t>
+          <t>-27,62; 11,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 25,86</t>
+          <t>-9,22; 25,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 5,26</t>
+          <t>-34,34; 7,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 2,4</t>
+          <t>-39,92; 1,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-70,83; 115,28</t>
+          <t>-72,2; 89,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,34; 394,57</t>
+          <t>-37,9; 359,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-76,94; 27,15</t>
+          <t>-76,06; 40,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,03; 20,7</t>
+          <t>-84,6; 14,45</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 2,85</t>
+          <t>-14,98; 1,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 3,55</t>
+          <t>-13,37; 2,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,67; -0,44</t>
+          <t>-19,16; 0,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -1,1</t>
+          <t>-18,67; -1,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 14,05</t>
+          <t>-47,18; 10,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-39,16; 15,21</t>
+          <t>-38,75; 12,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-46,47; -0,52</t>
+          <t>-47,92; 0,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-48,7; -3,85</t>
+          <t>-49,23; -4,93</t>
         </is>
       </c>
     </row>
